--- a/AoC_2024/Day_04.xlsx
+++ b/AoC_2024/Day_04.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28407"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AOC_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B5C934-88EB-4B8F-86C6-97ACF77A524F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0DA5D8-C777-4EFE-9AB9-EEC3FF8E4F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7515" yWindow="1020" windowWidth="28725" windowHeight="17010" xr2:uid="{D131D26F-6D0B-40B8-BD1E-55B7D8EFF72D}"/>
+    <workbookView xWindow="8505" yWindow="1020" windowWidth="27060" windowHeight="16965" xr2:uid="{D131D26F-6D0B-40B8-BD1E-55B7D8EFF72D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1-1" sheetId="6" r:id="rId1"/>
-    <sheet name="Hoja1-2" sheetId="1" r:id="rId2"/>
-    <sheet name="Hoja2" sheetId="5" r:id="rId3"/>
+    <sheet name="Hoja1-PY" sheetId="7" r:id="rId1"/>
+    <sheet name="Hoja1-1" sheetId="6" r:id="rId2"/>
+    <sheet name="Hoja1-2" sheetId="1" r:id="rId3"/>
+    <sheet name="Hoja2" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,8 +40,9 @@
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
+  <metadataTypes count="2">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
@@ -51,18 +53,52 @@
       </extLst>
     </bk>
   </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="3">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
+  <valueMetadata count="3">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
+    </bk>
+    <bk>
+      <rc t="2" v="2"/>
+    </bk>
+  </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
 <python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
   <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
-    <initialization>
+    <initialization userModified="1">
       <code xml:space="preserve">import numpy as np
 import pandas as pd
 import matplotlib.pyplot as plt
@@ -76,11 +112,37 @@
 </code>
     </initialization>
   </environmentDefinition>
+  <pythonScripts>
+    <pythonScript>
+      <code>def find_word(grid, y, x, word):
+    directions = [(-1, 0), (-1, 1), (0, 1), (1, 1), (1, 0), (1, -1), (0, -1), (-1, -1)]
+    return sum(
+        all(0 &lt;= (ny := y + i * dy) &lt; len(grid) and 0 &lt;= (nx := x + i * dx) &lt; len(grid[ny]) and grid[ny][nx] == word[i]
+            for i in range(len(word)))
+        for dy, dx in directions
+    )
+grid = [x.strip() for x in xl(%P2%)[0]]
+found1, found2 = 0, 0
+for y, row in enumerate(grid):
+    for x, letter in enumerate(row):
+        found1 += find_word(grid, y, x, "XMAS")
+        if letter == "A" and 0 &lt; y &lt; len(grid) - 1 and 0 &lt; x &lt; len(row) - 1:
+            neighbors = [grid[y - 1][x - 1] + grid[y + 1][x + 1], grid[y + 1][x - 1] + grid[y - 1][x + 1]]
+            found2 += all(pair in ("MS", "SM") for pair in neighbors)
+'Data Processed'</code>
+    </pythonScript>
+    <pythonScript>
+      <code>found1</code>
+    </pythonScript>
+    <pythonScript>
+      <code>found2</code>
+    </pythonScript>
+  </pythonScripts>
 </python>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="232">
   <si>
     <t>XXXMMSAMXXMASXASAMMSMMSAAMXMAXSAXMSXMXSAXMMXXXXMXAXXXMASMMSSSSSMMMSMSMMSMSMSMMSXMXMMSMMMMAMXSMMMMSSXMASXSMAMSMAXMAMXSXAMSSMSSSMXSMSXXXXAXMMM</t>
   </si>
@@ -7041,12 +7103,2476 @@
   <si>
     <t>Credits: Excel Wizard</t>
   </si>
+  <si>
+    <t>Sol. Part 1</t>
+  </si>
+  <si>
+    <t>Sol. Part 2</t>
+  </si>
+  <si>
+    <r>
+      <t>def</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>find_word</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>grid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>word</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>directions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = [(-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>), (-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>), (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>), (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>), (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>), (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>), (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>), (-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>sum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>all</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;= (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ny</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> := </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>dy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) &lt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>len</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>grid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;= (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>nx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> := </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>dx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) &lt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>len</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>grid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ny</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">]) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>grid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ny</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>nx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">] == </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>word</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>range</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>len</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>word</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>dy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>dx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>directions</t>
+    </r>
+  </si>
+  <si>
+    <t>    )</t>
+  </si>
+  <si>
+    <r>
+      <t>grid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.strip() </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>xl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"A3:A142"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>found1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>found2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>row</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>enumerate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>grid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>letter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>enumerate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>row</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>found1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> += </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>find_word</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>grid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"XMAS"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>letter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> == </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"A"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> &lt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> &lt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>len</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>grid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> &lt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> &lt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>len</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>row</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>neighbors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>grid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">] + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>grid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">], </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>grid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">] + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>grid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>found2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> += </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>all</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>pair</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"MS"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"SM"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>pair</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>neighbors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>'Data Processed'</t>
+  </si>
+  <si>
+    <t>found1</t>
+  </si>
+  <si>
+    <t>found2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="9">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7103,8 +9629,75 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF569CD6"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFDCDCAA"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFB5CEA8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC586C0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4EC9B0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7123,6 +9716,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -7136,7 +9735,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -7148,6 +9747,32 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7165,6 +9790,131 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <rv s="0">
+    <fb t="s">Data Processed</fb>
+    <v>&lt;class 'str'&gt;</v>
+    <v>str</v>
+    <v>Data Processed</v>
+    <v>Data Processed</v>
+    <v>0</v>
+    <v>1</v>
+  </rv>
+  <rv s="1">
+    <fb>2344</fb>
+    <v>&lt;class 'int'&gt;</v>
+    <v>int</v>
+    <v>2344</v>
+    <v>2344</v>
+    <v>0</v>
+    <v>1</v>
+  </rv>
+  <rv s="1">
+    <fb>1815</fb>
+    <v>&lt;class 'int'&gt;</v>
+    <v>int</v>
+    <v>1815</v>
+    <v>1815</v>
+    <v>0</v>
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+  <s t="_python">
+    <k n="Python_type" t="s"/>
+    <k n="Python_typeName" t="s"/>
+    <k n="Python_str" t="s"/>
+    <k n="basicValue" t="s"/>
+    <k n="_Provider" t="spb"/>
+    <k n="provider" t="spb"/>
+  </s>
+  <s t="_python">
+    <k n="Python_type" t="s"/>
+    <k n="Python_typeName" t="s"/>
+    <k n="Python_str" t="s"/>
+    <k n="basicValue" t="i"/>
+    <k n="_Provider" t="spb"/>
+    <k n="provider" t="spb"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbData count="2">
+    <spb s="0">
+      <v>https://www.anaconda.com/excel</v>
+      <v>https://res.cdn.office.net/officepysvc/prod-preview/anacondalogo.png</v>
+      <v>Python proporcionado por Anaconda</v>
+    </spb>
+    <spb s="1">
+      <v>https://www.anaconda.com/excel</v>
+      <v>https://res.cdn.office.net/officepysvc/prod-preview/anacondalogo.png</v>
+      <v>Python proporcionado por Anaconda</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="2">
+  <s>
+    <k n="link" t="s"/>
+    <k n="logo" t="s"/>
+    <k n="name" t="s"/>
+  </s>
+  <s>
+    <k n="url" t="s"/>
+    <k n="logoUrl" t="s"/>
+    <k n="description" t="s"/>
+  </s>
+</spbStructures>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7515,11 +10265,1016 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C97A1A-86EC-44D2-B259-B4E1C514DF55}">
+  <dimension ref="A3:AB142"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="13" width="11.42578125" style="8"/>
+    <col min="14" max="14" width="19.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.42578125" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:28">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="9" t="str" cm="1" vm="1">
+        <f t="array" ref="N3">_xlfn._xlws.PY(0,1,A3:A142)</f>
+        <v>Data Processed</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q6" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7" s="10" cm="1" vm="2">
+        <f t="array" ref="N7">_xlfn._xlws.PY(1,1)</f>
+        <v>2344</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" s="10" cm="1" vm="3">
+        <f t="array" ref="N11">_xlfn._xlws.PY(2,1)</f>
+        <v>1815</v>
+      </c>
+      <c r="O11" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q11" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="A14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q14" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q15" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q16" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+    </row>
+    <row r="17" spans="1:28">
+      <c r="A17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q17" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
+    </row>
+    <row r="18" spans="1:28">
+      <c r="A18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q18" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13"/>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="A19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q19" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="13"/>
+    </row>
+    <row r="20" spans="1:28">
+      <c r="A20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="13"/>
+      <c r="AB20" s="13"/>
+    </row>
+    <row r="21" spans="1:28">
+      <c r="A21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q21" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="13"/>
+    </row>
+    <row r="22" spans="1:28">
+      <c r="A22" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
+      <c r="A23" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
+      <c r="A24" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
+      <c r="A25" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
+      <c r="A26" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
+      <c r="A27" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
+      <c r="A28" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
+      <c r="A29" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
+      <c r="A30" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
+      <c r="A31" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
+      <c r="A32" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A24D9DFB-9C5C-4782-A8BF-FFCFA4E1CC2E}">
   <dimension ref="A1:G140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8774,7 +12529,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5874C14-AF35-4766-A1AD-D3177246A1E1}">
   <dimension ref="A1:AK600"/>
   <sheetViews>
@@ -17493,7 +21248,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D48D4A-FC04-4301-A66D-D94568CC7161}">
   <dimension ref="A1:EL159"/>
   <sheetViews>
